--- a/doc/KeyV4.1/Tuning_spname_dict_V4_1.31.xlsx
+++ b/doc/KeyV4.1/Tuning_spname_dict_V4_1.31.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Projects\SLA key V4 UltimateSPLASH ONE\SLA_V4_dev\KeyV4_LipidMapName\dict_V4\V4 1.5\1.5 with 1.3 mapping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baolongsu\Desktop\Scripts\Python\LipidAnaPackage_V1\SLA_1.12_test\doc\KeyV4.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,6 @@
     <sheet name="POS" sheetId="5" r:id="rId5"/>
     <sheet name="1Positive" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="2Negative" sheetId="7" state="hidden" r:id="rId7"/>
-    <sheet name="note" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="917">
   <si>
     <t>Q1</t>
   </si>
@@ -2758,9 +2757,6 @@
   </si>
   <si>
     <t>dFFA(17:1)</t>
-  </si>
-  <si>
-    <t>off set on PS</t>
   </si>
   <si>
     <t>dPC 18:0_18:2</t>
@@ -3872,7 +3868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D818"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="P416" sqref="P415:P416"/>
     </sheetView>
   </sheetViews>
@@ -5692,7 +5688,7 @@
         <v>-5.6580000000000004</v>
       </c>
       <c r="B165" s="20" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C165" t="s">
         <v>21</v>
@@ -5725,7 +5721,7 @@
         <v>-5.6580000000000004</v>
       </c>
       <c r="B168" s="20" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C168" t="s">
         <v>21</v>
@@ -5769,7 +5765,7 @@
         <v>-5.6580000000000004</v>
       </c>
       <c r="B172" s="20" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C172" t="s">
         <v>21</v>
@@ -5802,7 +5798,7 @@
         <v>-5.6580000000000004</v>
       </c>
       <c r="B175" s="20" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C175" t="s">
         <v>21</v>
@@ -8354,7 +8350,7 @@
         <v>-3.5369999999999999</v>
       </c>
       <c r="B407" s="22" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="C407" t="s">
         <v>24</v>
@@ -8387,7 +8383,7 @@
         <v>-3.5369999999999999</v>
       </c>
       <c r="B410" s="22" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C410" t="s">
         <v>24</v>
@@ -8431,7 +8427,7 @@
         <v>-3.5369999999999999</v>
       </c>
       <c r="B414" s="22" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C414" t="s">
         <v>24</v>
@@ -8464,7 +8460,7 @@
         <v>-3.5369999999999999</v>
       </c>
       <c r="B417" s="22" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C417" t="s">
         <v>24</v>
@@ -12915,8 +12911,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13686,187 +13682,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C32"/>
-  <sheetViews>
-    <sheetView zoomScale="136" zoomScaleNormal="136" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>909</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C2" s="5" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C3" s="5" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C4" s="5" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="5" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C6" s="5" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="5" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C8" s="5" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C9" s="5" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C10" s="5" t="s">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C11" s="5" t="s">
-        <v>757</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C12" s="5" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C13" s="5" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C14" s="5" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C15" s="5" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C16" s="5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C17" s="5" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C18" s="5" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C19" s="5" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C20" s="5" t="s">
-        <v>779</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C21" s="5" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C22" s="5" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C23" s="5" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C24" s="5" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C25" s="5" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C26" s="5" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C27" s="5" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C28" s="5" t="s">
-        <v>822</v>
-      </c>
-    </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C29" s="5" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="30" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C30" s="5" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="31" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C31" s="5" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="32" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C32" s="5" t="s">
-        <v>826</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
 </file>
--- a/doc/KeyV4.1/Tuning_spname_dict_V4_1.31.xlsx
+++ b/doc/KeyV4.1/Tuning_spname_dict_V4_1.31.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1788" uniqueCount="917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="918">
   <si>
     <t>Q1</t>
   </si>
@@ -2781,6 +2781,9 @@
   </si>
   <si>
     <t>dPE 18:0_22:6_</t>
+  </si>
+  <si>
+    <t>PC(15:0_2/18:1d7)</t>
   </si>
 </sst>
 </file>
@@ -3360,10 +3363,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3456,7 +3459,7 @@
         <v>241.3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>5</v>
+        <v>917</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3523,6 +3526,17 @@
       </c>
       <c r="C14" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>811.6</v>
+      </c>
+      <c r="B15" s="1">
+        <v>288.3</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -12911,7 +12925,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>

--- a/doc/KeyV4.1/Tuning_spname_dict_V4_1.31.xlsx
+++ b/doc/KeyV4.1/Tuning_spname_dict_V4_1.31.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="1Positive" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="2Negative" sheetId="7" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="918">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1789" uniqueCount="917">
   <si>
     <t>Q1</t>
   </si>
@@ -2202,9 +2202,6 @@
   </si>
   <si>
     <t>PS 14:0_22:4</t>
-  </si>
-  <si>
-    <t>PS 22:4</t>
   </si>
   <si>
     <t>PS 14:0_22:5</t>
@@ -2833,7 +2830,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2874,12 +2871,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFBE5D6"/>
         <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDEEBF7"/>
-        <bgColor rgb="FFDAE3F3"/>
       </patternFill>
     </fill>
     <fill>
@@ -2928,7 +2919,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2945,13 +2936,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3365,7 +3354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3459,7 +3448,7 @@
         <v>241.3</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -3882,8 +3871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D818"/>
   <sheetViews>
-    <sheetView topLeftCell="A394" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P416" sqref="P415:P416"/>
+    <sheetView tabSelected="1" topLeftCell="A63" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G166" sqref="G166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5668,7 +5657,7 @@
       <c r="A162" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B162" s="19" t="s">
+      <c r="B162" s="17" t="s">
         <v>197</v>
       </c>
       <c r="C162" t="s">
@@ -5679,7 +5668,7 @@
       <c r="A163" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="17" t="s">
         <v>198</v>
       </c>
       <c r="C163" t="s">
@@ -5690,7 +5679,7 @@
       <c r="A164" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B164" s="19" t="s">
+      <c r="B164" s="17" t="s">
         <v>199</v>
       </c>
       <c r="C164" t="s">
@@ -5701,8 +5690,8 @@
       <c r="A165" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B165" s="20" t="s">
-        <v>909</v>
+      <c r="B165" s="18" t="s">
+        <v>908</v>
       </c>
       <c r="C165" t="s">
         <v>21</v>
@@ -5712,7 +5701,7 @@
       <c r="A166" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B166" s="19" t="s">
+      <c r="B166" s="17" t="s">
         <v>200</v>
       </c>
       <c r="C166" t="s">
@@ -5723,7 +5712,7 @@
       <c r="A167" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B167" s="19" t="s">
+      <c r="B167" s="17" t="s">
         <v>201</v>
       </c>
       <c r="C167" t="s">
@@ -5734,8 +5723,8 @@
       <c r="A168" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B168" s="20" t="s">
-        <v>910</v>
+      <c r="B168" s="18" t="s">
+        <v>909</v>
       </c>
       <c r="C168" t="s">
         <v>21</v>
@@ -5745,7 +5734,7 @@
       <c r="A169" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B169" s="19" t="s">
+      <c r="B169" s="17" t="s">
         <v>202</v>
       </c>
       <c r="C169" t="s">
@@ -5756,7 +5745,7 @@
       <c r="A170" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B170" s="19" t="s">
+      <c r="B170" s="17" t="s">
         <v>203</v>
       </c>
       <c r="C170" t="s">
@@ -5767,7 +5756,7 @@
       <c r="A171" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B171" s="17" t="s">
         <v>204</v>
       </c>
       <c r="C171" t="s">
@@ -5778,8 +5767,8 @@
       <c r="A172" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B172" s="20" t="s">
-        <v>911</v>
+      <c r="B172" s="18" t="s">
+        <v>910</v>
       </c>
       <c r="C172" t="s">
         <v>21</v>
@@ -5789,7 +5778,7 @@
       <c r="A173" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B173" s="19" t="s">
+      <c r="B173" s="17" t="s">
         <v>205</v>
       </c>
       <c r="C173" t="s">
@@ -5800,7 +5789,7 @@
       <c r="A174" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B174" s="19" t="s">
+      <c r="B174" s="17" t="s">
         <v>206</v>
       </c>
       <c r="C174" t="s">
@@ -5811,8 +5800,8 @@
       <c r="A175" s="4">
         <v>-5.6580000000000004</v>
       </c>
-      <c r="B175" s="20" t="s">
-        <v>912</v>
+      <c r="B175" s="18" t="s">
+        <v>911</v>
       </c>
       <c r="C175" t="s">
         <v>21</v>
@@ -8330,7 +8319,7 @@
       <c r="A404" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B404" s="21" t="s">
+      <c r="B404" s="19" t="s">
         <v>435</v>
       </c>
       <c r="C404" t="s">
@@ -8341,7 +8330,7 @@
       <c r="A405" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B405" s="21" t="s">
+      <c r="B405" s="19" t="s">
         <v>436</v>
       </c>
       <c r="C405" t="s">
@@ -8352,7 +8341,7 @@
       <c r="A406" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B406" s="21" t="s">
+      <c r="B406" s="19" t="s">
         <v>437</v>
       </c>
       <c r="C406" t="s">
@@ -8363,8 +8352,8 @@
       <c r="A407" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B407" s="22" t="s">
-        <v>913</v>
+      <c r="B407" s="20" t="s">
+        <v>912</v>
       </c>
       <c r="C407" t="s">
         <v>24</v>
@@ -8374,7 +8363,7 @@
       <c r="A408" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B408" s="21" t="s">
+      <c r="B408" s="19" t="s">
         <v>438</v>
       </c>
       <c r="C408" t="s">
@@ -8385,7 +8374,7 @@
       <c r="A409" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B409" s="21" t="s">
+      <c r="B409" s="19" t="s">
         <v>439</v>
       </c>
       <c r="C409" t="s">
@@ -8396,8 +8385,8 @@
       <c r="A410" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B410" s="22" t="s">
-        <v>914</v>
+      <c r="B410" s="20" t="s">
+        <v>913</v>
       </c>
       <c r="C410" t="s">
         <v>24</v>
@@ -8407,7 +8396,7 @@
       <c r="A411" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B411" s="21" t="s">
+      <c r="B411" s="19" t="s">
         <v>440</v>
       </c>
       <c r="C411" t="s">
@@ -8418,7 +8407,7 @@
       <c r="A412" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B412" s="21" t="s">
+      <c r="B412" s="19" t="s">
         <v>441</v>
       </c>
       <c r="C412" t="s">
@@ -8429,7 +8418,7 @@
       <c r="A413" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B413" s="21" t="s">
+      <c r="B413" s="19" t="s">
         <v>442</v>
       </c>
       <c r="C413" t="s">
@@ -8440,8 +8429,8 @@
       <c r="A414" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B414" s="22" t="s">
-        <v>915</v>
+      <c r="B414" s="20" t="s">
+        <v>914</v>
       </c>
       <c r="C414" t="s">
         <v>24</v>
@@ -8451,7 +8440,7 @@
       <c r="A415" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B415" s="21" t="s">
+      <c r="B415" s="19" t="s">
         <v>443</v>
       </c>
       <c r="C415" t="s">
@@ -8462,7 +8451,7 @@
       <c r="A416" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B416" s="21" t="s">
+      <c r="B416" s="19" t="s">
         <v>444</v>
       </c>
       <c r="C416" t="s">
@@ -8473,16 +8462,16 @@
       <c r="A417" s="9">
         <v>-3.5369999999999999</v>
       </c>
-      <c r="B417" s="22" t="s">
-        <v>916</v>
+      <c r="B417" s="20" t="s">
+        <v>915</v>
       </c>
       <c r="C417" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A418" s="12">
-        <v>-13.334</v>
+      <c r="A418" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B418" t="s">
         <v>445</v>
@@ -8492,8 +8481,8 @@
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A419" s="12">
-        <v>-13.334</v>
+      <c r="A419" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B419" t="s">
         <v>446</v>
@@ -8504,8 +8493,8 @@
       <c r="D419" s="13"/>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A420" s="12">
-        <v>-13.334</v>
+      <c r="A420" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B420" t="s">
         <v>447</v>
@@ -8516,8 +8505,8 @@
       <c r="D420" s="13"/>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A421" s="12">
-        <v>-13.334</v>
+      <c r="A421" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B421" t="s">
         <v>448</v>
@@ -8528,8 +8517,8 @@
       <c r="D421" s="13"/>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A422" s="12">
-        <v>-13.334</v>
+      <c r="A422" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B422" t="s">
         <v>449</v>
@@ -8540,8 +8529,8 @@
       <c r="D422" s="13"/>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A423" s="12">
-        <v>-13.334</v>
+      <c r="A423" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B423" t="s">
         <v>450</v>
@@ -8552,8 +8541,8 @@
       <c r="D423" s="13"/>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A424" s="12">
-        <v>-13.334</v>
+      <c r="A424" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B424" t="s">
         <v>451</v>
@@ -8564,8 +8553,8 @@
       <c r="D424" s="13"/>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A425" s="12">
-        <v>-13.334</v>
+      <c r="A425" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B425" t="s">
         <v>452</v>
@@ -8576,8 +8565,8 @@
       <c r="D425" s="13"/>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A426" s="12">
-        <v>-13.334</v>
+      <c r="A426" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B426" t="s">
         <v>453</v>
@@ -8588,8 +8577,8 @@
       <c r="D426" s="13"/>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A427" s="12">
-        <v>-13.334</v>
+      <c r="A427" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B427" t="s">
         <v>454</v>
@@ -8600,8 +8589,8 @@
       <c r="D427" s="13"/>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A428" s="12">
-        <v>-13.334</v>
+      <c r="A428" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B428" t="s">
         <v>455</v>
@@ -8612,8 +8601,8 @@
       <c r="D428" s="13"/>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A429" s="12">
-        <v>-13.334</v>
+      <c r="A429" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B429" t="s">
         <v>456</v>
@@ -8624,8 +8613,8 @@
       <c r="D429" s="13"/>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A430" s="12">
-        <v>-13.334</v>
+      <c r="A430" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B430" t="s">
         <v>457</v>
@@ -8636,8 +8625,8 @@
       <c r="D430" s="13"/>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A431" s="12">
-        <v>-13.334</v>
+      <c r="A431" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B431" t="s">
         <v>458</v>
@@ -8648,8 +8637,8 @@
       <c r="D431" s="13"/>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A432" s="12">
-        <v>-13.334</v>
+      <c r="A432" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B432" t="s">
         <v>459</v>
@@ -8660,8 +8649,8 @@
       <c r="D432" s="13"/>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A433" s="12">
-        <v>-13.334</v>
+      <c r="A433" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B433" t="s">
         <v>460</v>
@@ -8672,8 +8661,8 @@
       <c r="D433" s="13"/>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A434" s="12">
-        <v>-13.334</v>
+      <c r="A434" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B434" t="s">
         <v>461</v>
@@ -8684,8 +8673,8 @@
       <c r="D434" s="13"/>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A435" s="12">
-        <v>-13.334</v>
+      <c r="A435" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B435" t="s">
         <v>462</v>
@@ -8696,8 +8685,8 @@
       <c r="D435" s="13"/>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A436" s="12">
-        <v>-13.334</v>
+      <c r="A436" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B436" t="s">
         <v>463</v>
@@ -8708,8 +8697,8 @@
       <c r="D436" s="13"/>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A437" s="12">
-        <v>-13.334</v>
+      <c r="A437" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B437" t="s">
         <v>464</v>
@@ -8720,8 +8709,8 @@
       <c r="D437" s="13"/>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A438" s="12">
-        <v>-13.334</v>
+      <c r="A438" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B438" t="s">
         <v>465</v>
@@ -8732,8 +8721,8 @@
       <c r="D438" s="13"/>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A439" s="12">
-        <v>-13.334</v>
+      <c r="A439" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B439" t="s">
         <v>466</v>
@@ -8744,8 +8733,8 @@
       <c r="D439" s="13"/>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A440" s="12">
-        <v>-13.334</v>
+      <c r="A440" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B440" t="s">
         <v>467</v>
@@ -8756,8 +8745,8 @@
       <c r="D440" s="13"/>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A441" s="12">
-        <v>-13.334</v>
+      <c r="A441" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B441" t="s">
         <v>468</v>
@@ -8768,8 +8757,8 @@
       <c r="D441" s="13"/>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A442" s="12">
-        <v>-13.334</v>
+      <c r="A442" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B442" t="s">
         <v>469</v>
@@ -8780,8 +8769,8 @@
       <c r="D442" s="13"/>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A443" s="12">
-        <v>-13.334</v>
+      <c r="A443" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B443" t="s">
         <v>470</v>
@@ -8791,8 +8780,8 @@
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A444" s="12">
-        <v>-13.334</v>
+      <c r="A444" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B444" t="s">
         <v>471</v>
@@ -8802,8 +8791,8 @@
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A445" s="12">
-        <v>-13.334</v>
+      <c r="A445" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B445" t="s">
         <v>472</v>
@@ -8813,8 +8802,8 @@
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A446" s="12">
-        <v>-13.334</v>
+      <c r="A446" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B446" t="s">
         <v>473</v>
@@ -8824,8 +8813,8 @@
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A447" s="12">
-        <v>-13.334</v>
+      <c r="A447" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B447" t="s">
         <v>474</v>
@@ -8835,8 +8824,8 @@
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A448" s="12">
-        <v>-13.334</v>
+      <c r="A448" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B448" t="s">
         <v>475</v>
@@ -8846,8 +8835,8 @@
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A449" s="12">
-        <v>-13.334</v>
+      <c r="A449" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B449" t="s">
         <v>476</v>
@@ -8857,8 +8846,8 @@
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A450" s="12">
-        <v>-13.334</v>
+      <c r="A450" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B450" t="s">
         <v>477</v>
@@ -8868,8 +8857,8 @@
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A451" s="14">
-        <v>-12.334</v>
+      <c r="A451" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B451" t="s">
         <v>478</v>
@@ -8879,8 +8868,8 @@
       </c>
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A452" s="14">
-        <v>-12.334</v>
+      <c r="A452" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B452" t="s">
         <v>479</v>
@@ -8890,8 +8879,8 @@
       </c>
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A453" s="14">
-        <v>-12.334</v>
+      <c r="A453" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B453" t="s">
         <v>480</v>
@@ -8901,8 +8890,8 @@
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A454" s="14">
-        <v>-12.334</v>
+      <c r="A454" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B454" t="s">
         <v>481</v>
@@ -8912,8 +8901,8 @@
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A455" s="14">
-        <v>-12.334</v>
+      <c r="A455" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B455" t="s">
         <v>482</v>
@@ -8923,8 +8912,8 @@
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A456" s="14">
-        <v>-12.334</v>
+      <c r="A456" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B456" t="s">
         <v>483</v>
@@ -8934,8 +8923,8 @@
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A457" s="14">
-        <v>-12.334</v>
+      <c r="A457" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B457" t="s">
         <v>484</v>
@@ -8945,8 +8934,8 @@
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A458" s="14">
-        <v>-12.334</v>
+      <c r="A458" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B458" t="s">
         <v>485</v>
@@ -8956,8 +8945,8 @@
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A459" s="14">
-        <v>-12.334</v>
+      <c r="A459" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B459" t="s">
         <v>486</v>
@@ -8967,8 +8956,8 @@
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A460" s="14">
-        <v>-12.334</v>
+      <c r="A460" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B460" t="s">
         <v>487</v>
@@ -8978,8 +8967,8 @@
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A461" s="14">
-        <v>-12.334</v>
+      <c r="A461" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B461" t="s">
         <v>488</v>
@@ -8989,8 +8978,8 @@
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A462" s="14">
-        <v>-12.334</v>
+      <c r="A462" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B462" t="s">
         <v>489</v>
@@ -9000,8 +8989,8 @@
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A463" s="14">
-        <v>-12.334</v>
+      <c r="A463" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B463" t="s">
         <v>490</v>
@@ -9011,8 +9000,8 @@
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A464" s="14">
-        <v>-12.334</v>
+      <c r="A464" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B464" t="s">
         <v>491</v>
@@ -9022,8 +9011,8 @@
       </c>
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A465" s="14">
-        <v>-12.334</v>
+      <c r="A465" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B465" t="s">
         <v>492</v>
@@ -9033,8 +9022,8 @@
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A466" s="14">
-        <v>-12.334</v>
+      <c r="A466" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B466" t="s">
         <v>493</v>
@@ -9044,8 +9033,8 @@
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A467" s="14">
-        <v>-12.334</v>
+      <c r="A467" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B467" t="s">
         <v>494</v>
@@ -9055,8 +9044,8 @@
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A468" s="14">
-        <v>-12.334</v>
+      <c r="A468" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B468" t="s">
         <v>495</v>
@@ -9066,8 +9055,8 @@
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A469" s="14">
-        <v>-12.334</v>
+      <c r="A469" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B469" t="s">
         <v>496</v>
@@ -9077,8 +9066,8 @@
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A470" s="14">
-        <v>-12.334</v>
+      <c r="A470" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B470" t="s">
         <v>497</v>
@@ -9088,8 +9077,8 @@
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A471" s="14">
-        <v>-12.334</v>
+      <c r="A471" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B471" t="s">
         <v>498</v>
@@ -9100,7 +9089,7 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A472" s="15">
-        <v>-12.208</v>
+        <v>-1.113</v>
       </c>
       <c r="B472" t="s">
         <v>499</v>
@@ -9111,7 +9100,7 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A473" s="15">
-        <v>-12.208</v>
+        <v>-1.113</v>
       </c>
       <c r="B473" t="s">
         <v>500</v>
@@ -9122,7 +9111,7 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A474" s="15">
-        <v>-12.208</v>
+        <v>-1.113</v>
       </c>
       <c r="B474" t="s">
         <v>501</v>
@@ -9133,7 +9122,7 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A475" s="15">
-        <v>-12.208</v>
+        <v>-1.113</v>
       </c>
       <c r="B475" t="s">
         <v>502</v>
@@ -9144,7 +9133,7 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A476" s="15">
-        <v>-12.208</v>
+        <v>-1.113</v>
       </c>
       <c r="B476" t="s">
         <v>503</v>
@@ -9155,7 +9144,7 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A477" s="15">
-        <v>-12.208</v>
+        <v>-1.113</v>
       </c>
       <c r="B477" t="s">
         <v>504</v>
@@ -9166,7 +9155,7 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A478" s="15">
-        <v>-12.208</v>
+        <v>-1.113</v>
       </c>
       <c r="B478" t="s">
         <v>505</v>
@@ -9176,8 +9165,8 @@
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A479" s="16">
-        <v>-10.708</v>
+      <c r="A479" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B479" t="s">
         <v>506</v>
@@ -9187,8 +9176,8 @@
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A480" s="16">
-        <v>-10.708</v>
+      <c r="A480" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B480" t="s">
         <v>507</v>
@@ -9198,8 +9187,8 @@
       </c>
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A481" s="16">
-        <v>-10.708</v>
+      <c r="A481" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B481" t="s">
         <v>508</v>
@@ -9209,8 +9198,8 @@
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A482" s="16">
-        <v>-10.708</v>
+      <c r="A482" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B482" t="s">
         <v>509</v>
@@ -9220,8 +9209,8 @@
       </c>
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A483" s="16">
-        <v>-10.708</v>
+      <c r="A483" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B483" t="s">
         <v>510</v>
@@ -9231,8 +9220,8 @@
       </c>
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A484" s="16">
-        <v>-10.708</v>
+      <c r="A484" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B484" t="s">
         <v>511</v>
@@ -9242,8 +9231,8 @@
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A485" s="16">
-        <v>-10.708</v>
+      <c r="A485" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B485" t="s">
         <v>512</v>
@@ -9253,8 +9242,8 @@
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A486" s="16">
-        <v>-10.708</v>
+      <c r="A486" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B486" t="s">
         <v>513</v>
@@ -9264,8 +9253,8 @@
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A487" s="16">
-        <v>-10.708</v>
+      <c r="A487" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B487" t="s">
         <v>514</v>
@@ -9275,8 +9264,8 @@
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A488" s="16">
-        <v>-10.708</v>
+      <c r="A488" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B488" t="s">
         <v>515</v>
@@ -9286,8 +9275,8 @@
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A489" s="16">
-        <v>-10.708</v>
+      <c r="A489" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B489" t="s">
         <v>516</v>
@@ -9297,8 +9286,8 @@
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A490" s="16">
-        <v>-10.708</v>
+      <c r="A490" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B490" t="s">
         <v>517</v>
@@ -9308,8 +9297,8 @@
       </c>
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A491" s="16">
-        <v>-10.708</v>
+      <c r="A491" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B491" t="s">
         <v>518</v>
@@ -9319,8 +9308,8 @@
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A492" s="16">
-        <v>-10.708</v>
+      <c r="A492" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B492" t="s">
         <v>519</v>
@@ -9330,8 +9319,8 @@
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A493" s="16">
-        <v>-10.708</v>
+      <c r="A493" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B493" t="s">
         <v>520</v>
@@ -9341,8 +9330,8 @@
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A494" s="16">
-        <v>-10.708</v>
+      <c r="A494" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B494" t="s">
         <v>521</v>
@@ -9352,8 +9341,8 @@
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A495" s="16">
-        <v>-10.708</v>
+      <c r="A495" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B495" t="s">
         <v>522</v>
@@ -9363,8 +9352,8 @@
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A496" s="16">
-        <v>-10.708</v>
+      <c r="A496" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B496" t="s">
         <v>523</v>
@@ -9374,8 +9363,8 @@
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A497" s="16">
-        <v>-10.708</v>
+      <c r="A497" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B497" t="s">
         <v>524</v>
@@ -9385,8 +9374,8 @@
       </c>
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A498" s="16">
-        <v>-10.708</v>
+      <c r="A498" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B498" t="s">
         <v>525</v>
@@ -9396,8 +9385,8 @@
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A499" s="16">
-        <v>-10.708</v>
+      <c r="A499" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B499" t="s">
         <v>526</v>
@@ -9407,8 +9396,8 @@
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A500" s="16">
-        <v>-10.708</v>
+      <c r="A500" s="15">
+        <v>-1.113</v>
       </c>
       <c r="B500" t="s">
         <v>527</v>
@@ -9418,7 +9407,7 @@
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A501" s="17">
+      <c r="A501" s="15">
         <v>-1.113</v>
       </c>
       <c r="B501" t="s">
@@ -9429,7 +9418,7 @@
       </c>
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A502" s="17">
+      <c r="A502" s="15">
         <v>-1.113</v>
       </c>
       <c r="B502" t="s">
@@ -9440,7 +9429,7 @@
       </c>
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A503" s="17">
+      <c r="A503" s="15">
         <v>-1.113</v>
       </c>
       <c r="B503" t="s">
@@ -9451,7 +9440,7 @@
       </c>
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A504" s="17">
+      <c r="A504" s="15">
         <v>-1.113</v>
       </c>
       <c r="B504" t="s">
@@ -9462,7 +9451,7 @@
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A505" s="17">
+      <c r="A505" s="15">
         <v>-1.113</v>
       </c>
       <c r="B505" t="s">
@@ -9473,7 +9462,7 @@
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A506" s="17">
+      <c r="A506" s="15">
         <v>-1.113</v>
       </c>
       <c r="B506" t="s">
@@ -9484,7 +9473,7 @@
       </c>
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" s="17">
+      <c r="A507" s="15">
         <v>-1.113</v>
       </c>
       <c r="B507" t="s">
@@ -9495,7 +9484,7 @@
       </c>
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A508" s="17">
+      <c r="A508" s="15">
         <v>-1.113</v>
       </c>
       <c r="B508" t="s">
@@ -9506,7 +9495,7 @@
       </c>
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A509" s="17">
+      <c r="A509" s="15">
         <v>-1.113</v>
       </c>
       <c r="B509" t="s">
@@ -9517,7 +9506,7 @@
       </c>
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A510" s="17">
+      <c r="A510" s="15">
         <v>-1.113</v>
       </c>
       <c r="B510" t="s">
@@ -9528,7 +9517,7 @@
       </c>
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A511" s="17">
+      <c r="A511" s="15">
         <v>-1.113</v>
       </c>
       <c r="B511" t="s">
@@ -9539,7 +9528,7 @@
       </c>
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A512" s="17">
+      <c r="A512" s="15">
         <v>-1.113</v>
       </c>
       <c r="B512" t="s">
@@ -9550,7 +9539,7 @@
       </c>
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A513" s="17">
+      <c r="A513" s="15">
         <v>-1.113</v>
       </c>
       <c r="B513" t="s">
@@ -9561,7 +9550,7 @@
       </c>
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A514" s="17">
+      <c r="A514" s="15">
         <v>-1.113</v>
       </c>
       <c r="B514" t="s">
@@ -9572,7 +9561,7 @@
       </c>
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A515" s="17">
+      <c r="A515" s="15">
         <v>-1.113</v>
       </c>
       <c r="B515" t="s">
@@ -9583,7 +9572,7 @@
       </c>
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A516" s="17">
+      <c r="A516" s="15">
         <v>-1.113</v>
       </c>
       <c r="B516" t="s">
@@ -9594,7 +9583,7 @@
       </c>
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A517" s="17">
+      <c r="A517" s="15">
         <v>-1.113</v>
       </c>
       <c r="B517" t="s">
@@ -9605,7 +9594,7 @@
       </c>
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A518" s="17">
+      <c r="A518" s="15">
         <v>-1.113</v>
       </c>
       <c r="B518" t="s">
@@ -9616,7 +9605,7 @@
       </c>
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A519" s="17">
+      <c r="A519" s="15">
         <v>-1.113</v>
       </c>
       <c r="B519" t="s">
@@ -9627,7 +9616,7 @@
       </c>
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A520" s="17">
+      <c r="A520" s="15">
         <v>-1.113</v>
       </c>
       <c r="B520" t="s">
@@ -9638,7 +9627,7 @@
       </c>
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A521" s="17">
+      <c r="A521" s="15">
         <v>-1.113</v>
       </c>
       <c r="B521" t="s">
@@ -9649,7 +9638,7 @@
       </c>
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A522" s="17">
+      <c r="A522" s="15">
         <v>-1.113</v>
       </c>
       <c r="B522" t="s">
@@ -9660,7 +9649,7 @@
       </c>
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A523" s="17">
+      <c r="A523" s="15">
         <v>-1.113</v>
       </c>
       <c r="B523" t="s">
@@ -9671,7 +9660,7 @@
       </c>
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A524" s="17">
+      <c r="A524" s="15">
         <v>-1.113</v>
       </c>
       <c r="B524" t="s">
@@ -9682,7 +9671,7 @@
       </c>
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A525" s="17">
+      <c r="A525" s="15">
         <v>-1.113</v>
       </c>
       <c r="B525" t="s">
@@ -9693,7 +9682,7 @@
       </c>
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A526" s="17">
+      <c r="A526" s="15">
         <v>-1.113</v>
       </c>
       <c r="B526" t="s">
@@ -9704,7 +9693,7 @@
       </c>
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A527" s="17">
+      <c r="A527" s="15">
         <v>-1.113</v>
       </c>
       <c r="B527" t="s">
@@ -9715,7 +9704,7 @@
       </c>
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A528" s="17">
+      <c r="A528" s="15">
         <v>-1.113</v>
       </c>
       <c r="B528" t="s">
@@ -9726,7 +9715,7 @@
       </c>
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A529" s="17">
+      <c r="A529" s="15">
         <v>-1.113</v>
       </c>
       <c r="B529" t="s">
@@ -9737,7 +9726,7 @@
       </c>
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A530" s="17">
+      <c r="A530" s="15">
         <v>-1.113</v>
       </c>
       <c r="B530" t="s">
@@ -9748,7 +9737,7 @@
       </c>
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A531" s="17">
+      <c r="A531" s="15">
         <v>-1.113</v>
       </c>
       <c r="B531" t="s">
@@ -9759,7 +9748,7 @@
       </c>
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A532" s="17">
+      <c r="A532" s="15">
         <v>-1.113</v>
       </c>
       <c r="B532" t="s">
@@ -9770,7 +9759,7 @@
       </c>
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A533" s="17">
+      <c r="A533" s="15">
         <v>-1.113</v>
       </c>
       <c r="B533" t="s">
@@ -9781,7 +9770,7 @@
       </c>
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A534" s="17">
+      <c r="A534" s="15">
         <v>-1.113</v>
       </c>
       <c r="B534" t="s">
@@ -9792,7 +9781,7 @@
       </c>
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A535" s="17">
+      <c r="A535" s="15">
         <v>-1.113</v>
       </c>
       <c r="B535" t="s">
@@ -9803,7 +9792,7 @@
       </c>
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A536" s="17">
+      <c r="A536" s="15">
         <v>-1.113</v>
       </c>
       <c r="B536" t="s">
@@ -9814,7 +9803,7 @@
       </c>
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A537" s="17">
+      <c r="A537" s="15">
         <v>-1.113</v>
       </c>
       <c r="B537" t="s">
@@ -9825,7 +9814,7 @@
       </c>
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A538" s="17">
+      <c r="A538" s="15">
         <v>-1.113</v>
       </c>
       <c r="B538" t="s">
@@ -9836,7 +9825,7 @@
       </c>
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A539" s="17">
+      <c r="A539" s="15">
         <v>-1.113</v>
       </c>
       <c r="B539" t="s">
@@ -9847,7 +9836,7 @@
       </c>
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A540" s="17">
+      <c r="A540" s="15">
         <v>-1.113</v>
       </c>
       <c r="B540" t="s">
@@ -9858,10 +9847,10 @@
       </c>
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A541" s="17">
+      <c r="A541" s="15">
         <v>-1.113</v>
       </c>
-      <c r="B541" s="18" t="s">
+      <c r="B541" s="16" t="s">
         <v>568</v>
       </c>
       <c r="C541" t="s">
@@ -9869,10 +9858,10 @@
       </c>
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A542" s="17">
+      <c r="A542" s="15">
         <v>-1.113</v>
       </c>
-      <c r="B542" s="18" t="s">
+      <c r="B542" s="16" t="s">
         <v>569</v>
       </c>
       <c r="C542" t="s">
@@ -9880,10 +9869,10 @@
       </c>
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A543" s="17">
+      <c r="A543" s="15">
         <v>-1.113</v>
       </c>
-      <c r="B543" s="18" t="s">
+      <c r="B543" s="16" t="s">
         <v>570</v>
       </c>
       <c r="C543" t="s">
@@ -9891,10 +9880,10 @@
       </c>
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A544" s="17">
+      <c r="A544" s="15">
         <v>-1.113</v>
       </c>
-      <c r="B544" s="18" t="s">
+      <c r="B544" s="16" t="s">
         <v>571</v>
       </c>
       <c r="C544" t="s">
@@ -9902,10 +9891,10 @@
       </c>
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A545" s="17">
+      <c r="A545" s="15">
         <v>-1.113</v>
       </c>
-      <c r="B545" s="18" t="s">
+      <c r="B545" s="16" t="s">
         <v>572</v>
       </c>
       <c r="C545" t="s">
@@ -9913,10 +9902,10 @@
       </c>
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A546" s="17">
+      <c r="A546" s="15">
         <v>-1.113</v>
       </c>
-      <c r="B546" s="18" t="s">
+      <c r="B546" s="16" t="s">
         <v>573</v>
       </c>
       <c r="C546" t="s">
@@ -9924,10 +9913,10 @@
       </c>
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A547" s="17">
+      <c r="A547" s="15">
         <v>-1.113</v>
       </c>
-      <c r="B547" s="18" t="s">
+      <c r="B547" s="16" t="s">
         <v>574</v>
       </c>
       <c r="C547" t="s">
@@ -9935,10 +9924,10 @@
       </c>
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A548" s="17">
+      <c r="A548" s="15">
         <v>-1.113</v>
       </c>
-      <c r="B548" s="18" t="s">
+      <c r="B548" s="16" t="s">
         <v>575</v>
       </c>
       <c r="C548" t="s">
@@ -9946,10 +9935,10 @@
       </c>
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A549" s="17">
+      <c r="A549" s="15">
         <v>-1.113</v>
       </c>
-      <c r="B549" s="18" t="s">
+      <c r="B549" s="16" t="s">
         <v>576</v>
       </c>
       <c r="C549" t="s">
@@ -9957,10 +9946,10 @@
       </c>
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A550" s="17">
+      <c r="A550" s="15">
         <v>-1.113</v>
       </c>
-      <c r="B550" s="18" t="s">
+      <c r="B550" s="16" t="s">
         <v>577</v>
       </c>
       <c r="C550" t="s">
@@ -9968,8 +9957,8 @@
       </c>
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A551" s="17">
-        <v>-1.113</v>
+      <c r="A551" s="14">
+        <v>3.331</v>
       </c>
       <c r="B551" t="s">
         <v>578</v>
@@ -9979,8 +9968,8 @@
       </c>
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A552" s="17">
-        <v>-1.113</v>
+      <c r="A552" s="14">
+        <v>3.331</v>
       </c>
       <c r="B552" t="s">
         <v>579</v>
@@ -9990,8 +9979,8 @@
       </c>
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A553" s="17">
-        <v>-1.113</v>
+      <c r="A553" s="14">
+        <v>3.331</v>
       </c>
       <c r="B553" t="s">
         <v>580</v>
@@ -10001,8 +9990,8 @@
       </c>
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A554" s="17">
-        <v>-1.113</v>
+      <c r="A554" s="14">
+        <v>3.331</v>
       </c>
       <c r="B554" t="s">
         <v>581</v>
@@ -10012,8 +10001,8 @@
       </c>
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A555" s="17">
-        <v>-1.113</v>
+      <c r="A555" s="14">
+        <v>3.331</v>
       </c>
       <c r="B555" t="s">
         <v>582</v>
@@ -10023,8 +10012,8 @@
       </c>
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A556" s="17">
-        <v>-1.113</v>
+      <c r="A556" s="14">
+        <v>3.331</v>
       </c>
       <c r="B556" t="s">
         <v>583</v>
@@ -10034,8 +10023,8 @@
       </c>
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A557" s="17">
-        <v>-1.113</v>
+      <c r="A557" s="14">
+        <v>3.331</v>
       </c>
       <c r="B557" t="s">
         <v>584</v>
@@ -10045,8 +10034,8 @@
       </c>
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A558" s="17">
-        <v>-1.113</v>
+      <c r="A558" s="14">
+        <v>3.331</v>
       </c>
       <c r="B558" t="s">
         <v>585</v>
@@ -10056,8 +10045,8 @@
       </c>
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A559" s="17">
-        <v>-1.113</v>
+      <c r="A559" s="14">
+        <v>3.331</v>
       </c>
       <c r="B559" t="s">
         <v>586</v>
@@ -10067,8 +10056,8 @@
       </c>
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A560" s="17">
-        <v>-1.113</v>
+      <c r="A560" s="14">
+        <v>3.331</v>
       </c>
       <c r="B560" t="s">
         <v>587</v>
@@ -10078,8 +10067,8 @@
       </c>
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A561" s="17">
-        <v>-1.113</v>
+      <c r="A561" s="14">
+        <v>3.331</v>
       </c>
       <c r="B561" t="s">
         <v>588</v>
@@ -10089,8 +10078,8 @@
       </c>
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A562" s="17">
-        <v>-1.113</v>
+      <c r="A562" s="14">
+        <v>3.331</v>
       </c>
       <c r="B562" t="s">
         <v>589</v>
@@ -10100,8 +10089,8 @@
       </c>
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A563" s="17">
-        <v>-1.113</v>
+      <c r="A563" s="14">
+        <v>3.331</v>
       </c>
       <c r="B563" t="s">
         <v>590</v>
@@ -10111,8 +10100,8 @@
       </c>
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A564" s="17">
-        <v>-1.113</v>
+      <c r="A564" s="14">
+        <v>3.331</v>
       </c>
       <c r="B564" t="s">
         <v>591</v>
@@ -10122,8 +10111,8 @@
       </c>
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A565" s="17">
-        <v>-1.113</v>
+      <c r="A565" s="14">
+        <v>3.331</v>
       </c>
       <c r="B565" t="s">
         <v>592</v>
@@ -10133,8 +10122,8 @@
       </c>
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A566" s="17">
-        <v>-1.113</v>
+      <c r="A566" s="14">
+        <v>3.331</v>
       </c>
       <c r="B566" t="s">
         <v>593</v>
@@ -10144,8 +10133,8 @@
       </c>
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A567" s="17">
-        <v>-1.113</v>
+      <c r="A567" s="14">
+        <v>3.331</v>
       </c>
       <c r="B567" t="s">
         <v>594</v>
@@ -10155,8 +10144,8 @@
       </c>
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A568" s="17">
-        <v>-1.113</v>
+      <c r="A568" s="14">
+        <v>3.331</v>
       </c>
       <c r="B568" t="s">
         <v>595</v>
@@ -10166,8 +10155,8 @@
       </c>
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A569" s="17">
-        <v>-1.113</v>
+      <c r="A569" s="14">
+        <v>3.331</v>
       </c>
       <c r="B569" t="s">
         <v>596</v>
@@ -10177,8 +10166,8 @@
       </c>
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A570" s="17">
-        <v>-1.113</v>
+      <c r="A570" s="14">
+        <v>3.331</v>
       </c>
       <c r="B570" t="s">
         <v>597</v>
@@ -10188,8 +10177,8 @@
       </c>
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A571" s="17">
-        <v>-1.113</v>
+      <c r="A571" s="14">
+        <v>3.331</v>
       </c>
       <c r="B571" t="s">
         <v>598</v>
@@ -10199,8 +10188,8 @@
       </c>
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A572" s="17">
-        <v>-1.113</v>
+      <c r="A572" s="14">
+        <v>3.331</v>
       </c>
       <c r="B572" t="s">
         <v>599</v>
@@ -10210,8 +10199,8 @@
       </c>
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A573" s="17">
-        <v>-1.113</v>
+      <c r="A573" s="14">
+        <v>3.331</v>
       </c>
       <c r="B573" t="s">
         <v>600</v>
@@ -10221,8 +10210,8 @@
       </c>
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A574" s="17">
-        <v>-1.113</v>
+      <c r="A574" s="14">
+        <v>3.331</v>
       </c>
       <c r="B574" t="s">
         <v>601</v>
@@ -10232,8 +10221,8 @@
       </c>
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A575" s="17">
-        <v>-1.113</v>
+      <c r="A575" s="14">
+        <v>3.331</v>
       </c>
       <c r="B575" t="s">
         <v>602</v>
@@ -10243,8 +10232,8 @@
       </c>
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A576" s="17">
-        <v>-1.113</v>
+      <c r="A576" s="14">
+        <v>3.331</v>
       </c>
       <c r="B576" t="s">
         <v>603</v>
@@ -10254,8 +10243,8 @@
       </c>
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A577" s="17">
-        <v>-1.113</v>
+      <c r="A577" s="14">
+        <v>3.331</v>
       </c>
       <c r="B577" t="s">
         <v>604</v>
@@ -10265,8 +10254,8 @@
       </c>
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A578" s="17">
-        <v>-1.113</v>
+      <c r="A578" s="14">
+        <v>3.331</v>
       </c>
       <c r="B578" t="s">
         <v>605</v>
@@ -10276,8 +10265,8 @@
       </c>
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A579" s="17">
-        <v>-1.113</v>
+      <c r="A579" s="14">
+        <v>3.331</v>
       </c>
       <c r="B579" t="s">
         <v>606</v>
@@ -10287,8 +10276,8 @@
       </c>
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A580" s="17">
-        <v>-1.113</v>
+      <c r="A580" s="14">
+        <v>3.331</v>
       </c>
       <c r="B580" t="s">
         <v>607</v>
@@ -10298,8 +10287,8 @@
       </c>
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A581" s="17">
-        <v>-1.113</v>
+      <c r="A581" s="14">
+        <v>3.331</v>
       </c>
       <c r="B581" t="s">
         <v>608</v>
@@ -10309,8 +10298,8 @@
       </c>
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A582" s="17">
-        <v>-1.113</v>
+      <c r="A582" s="14">
+        <v>3.331</v>
       </c>
       <c r="B582" t="s">
         <v>609</v>
@@ -10320,8 +10309,8 @@
       </c>
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A583" s="17">
-        <v>-1.113</v>
+      <c r="A583" s="14">
+        <v>3.331</v>
       </c>
       <c r="B583" t="s">
         <v>610</v>
@@ -10331,8 +10320,8 @@
       </c>
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A584" s="17">
-        <v>-1.113</v>
+      <c r="A584" s="14">
+        <v>3.331</v>
       </c>
       <c r="B584" t="s">
         <v>611</v>
@@ -10342,8 +10331,8 @@
       </c>
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A585" s="17">
-        <v>-1.113</v>
+      <c r="A585" s="14">
+        <v>3.331</v>
       </c>
       <c r="B585" t="s">
         <v>612</v>
@@ -10353,8 +10342,8 @@
       </c>
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A586" s="17">
-        <v>-1.113</v>
+      <c r="A586" s="14">
+        <v>3.331</v>
       </c>
       <c r="B586" t="s">
         <v>613</v>
@@ -10364,8 +10353,8 @@
       </c>
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A587" s="17">
-        <v>-1.113</v>
+      <c r="A587" s="14">
+        <v>3.331</v>
       </c>
       <c r="B587" t="s">
         <v>614</v>
@@ -10375,8 +10364,8 @@
       </c>
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A588" s="17">
-        <v>-1.113</v>
+      <c r="A588" s="14">
+        <v>3.331</v>
       </c>
       <c r="B588" t="s">
         <v>615</v>
@@ -10386,8 +10375,8 @@
       </c>
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A589" s="17">
-        <v>-1.113</v>
+      <c r="A589" s="14">
+        <v>3.331</v>
       </c>
       <c r="B589" t="s">
         <v>616</v>
@@ -10397,8 +10386,8 @@
       </c>
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A590" s="17">
-        <v>-1.113</v>
+      <c r="A590" s="14">
+        <v>3.331</v>
       </c>
       <c r="B590" t="s">
         <v>617</v>
@@ -10408,8 +10397,8 @@
       </c>
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A591" s="17">
-        <v>-1.113</v>
+      <c r="A591" s="14">
+        <v>3.331</v>
       </c>
       <c r="B591" t="s">
         <v>618</v>
@@ -10419,8 +10408,8 @@
       </c>
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A592" s="17">
-        <v>-1.113</v>
+      <c r="A592" s="14">
+        <v>3.331</v>
       </c>
       <c r="B592" t="s">
         <v>619</v>
@@ -10430,8 +10419,8 @@
       </c>
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A593" s="17">
-        <v>-1.113</v>
+      <c r="A593" s="14">
+        <v>3.331</v>
       </c>
       <c r="B593" t="s">
         <v>620</v>
@@ -10441,8 +10430,8 @@
       </c>
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A594" s="17">
-        <v>-1.113</v>
+      <c r="A594" s="14">
+        <v>3.331</v>
       </c>
       <c r="B594" t="s">
         <v>621</v>
@@ -10452,8 +10441,8 @@
       </c>
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A595" s="17">
-        <v>-1.113</v>
+      <c r="A595" s="14">
+        <v>3.331</v>
       </c>
       <c r="B595" t="s">
         <v>622</v>
@@ -10463,8 +10452,8 @@
       </c>
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A596" s="17">
-        <v>-1.113</v>
+      <c r="A596" s="14">
+        <v>3.331</v>
       </c>
       <c r="B596" t="s">
         <v>623</v>
@@ -10474,8 +10463,8 @@
       </c>
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A597" s="17">
-        <v>-1.113</v>
+      <c r="A597" s="14">
+        <v>3.331</v>
       </c>
       <c r="B597" t="s">
         <v>624</v>
@@ -10485,8 +10474,8 @@
       </c>
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A598" s="17">
-        <v>-1.113</v>
+      <c r="A598" s="14">
+        <v>3.331</v>
       </c>
       <c r="B598" t="s">
         <v>625</v>
@@ -10496,8 +10485,8 @@
       </c>
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A599" s="17">
-        <v>-1.113</v>
+      <c r="A599" s="14">
+        <v>3.331</v>
       </c>
       <c r="B599" t="s">
         <v>626</v>
@@ -10507,8 +10496,8 @@
       </c>
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A600" s="17">
-        <v>-1.113</v>
+      <c r="A600" s="14">
+        <v>3.331</v>
       </c>
       <c r="B600" t="s">
         <v>627</v>
@@ -10518,8 +10507,8 @@
       </c>
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A601" s="17">
-        <v>-1.113</v>
+      <c r="A601" s="14">
+        <v>3.331</v>
       </c>
       <c r="B601" t="s">
         <v>628</v>
@@ -10529,8 +10518,8 @@
       </c>
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A602" s="17">
-        <v>-1.113</v>
+      <c r="A602" s="14">
+        <v>3.331</v>
       </c>
       <c r="B602" t="s">
         <v>629</v>
@@ -10540,8 +10529,8 @@
       </c>
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A603" s="17">
-        <v>-1.113</v>
+      <c r="A603" s="14">
+        <v>3.331</v>
       </c>
       <c r="B603" t="s">
         <v>630</v>
@@ -10551,8 +10540,8 @@
       </c>
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A604" s="17">
-        <v>-1.113</v>
+      <c r="A604" s="14">
+        <v>3.331</v>
       </c>
       <c r="B604" t="s">
         <v>631</v>
@@ -10562,8 +10551,8 @@
       </c>
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A605" s="17">
-        <v>-1.113</v>
+      <c r="A605" s="14">
+        <v>3.331</v>
       </c>
       <c r="B605" t="s">
         <v>632</v>
@@ -10573,8 +10562,8 @@
       </c>
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A606" s="17">
-        <v>-1.113</v>
+      <c r="A606" s="14">
+        <v>3.331</v>
       </c>
       <c r="B606" t="s">
         <v>633</v>
@@ -10584,8 +10573,8 @@
       </c>
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A607" s="17">
-        <v>-1.113</v>
+      <c r="A607" s="14">
+        <v>3.331</v>
       </c>
       <c r="B607" t="s">
         <v>634</v>
@@ -10595,8 +10584,8 @@
       </c>
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A608" s="17">
-        <v>-1.113</v>
+      <c r="A608" s="14">
+        <v>3.331</v>
       </c>
       <c r="B608" t="s">
         <v>635</v>
@@ -10606,8 +10595,8 @@
       </c>
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A609" s="17">
-        <v>-1.113</v>
+      <c r="A609" s="14">
+        <v>3.331</v>
       </c>
       <c r="B609" t="s">
         <v>636</v>
@@ -10617,8 +10606,8 @@
       </c>
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A610" s="17">
-        <v>-1.113</v>
+      <c r="A610" s="14">
+        <v>3.331</v>
       </c>
       <c r="B610" t="s">
         <v>637</v>
@@ -10628,8 +10617,8 @@
       </c>
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A611" s="17">
-        <v>-1.113</v>
+      <c r="A611" s="14">
+        <v>3.331</v>
       </c>
       <c r="B611" t="s">
         <v>638</v>
@@ -10639,8 +10628,8 @@
       </c>
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A612" s="17">
-        <v>-1.113</v>
+      <c r="A612" s="14">
+        <v>3.331</v>
       </c>
       <c r="B612" t="s">
         <v>639</v>
@@ -10650,8 +10639,8 @@
       </c>
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A613" s="17">
-        <v>-1.113</v>
+      <c r="A613" s="14">
+        <v>3.331</v>
       </c>
       <c r="B613" t="s">
         <v>640</v>
@@ -10661,8 +10650,8 @@
       </c>
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A614" s="17">
-        <v>-1.113</v>
+      <c r="A614" s="14">
+        <v>3.331</v>
       </c>
       <c r="B614" t="s">
         <v>641</v>
@@ -10672,8 +10661,8 @@
       </c>
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A615" s="17">
-        <v>-1.113</v>
+      <c r="A615" s="14">
+        <v>3.331</v>
       </c>
       <c r="B615" t="s">
         <v>642</v>
@@ -10683,8 +10672,8 @@
       </c>
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A616" s="17">
-        <v>-1.113</v>
+      <c r="A616" s="14">
+        <v>3.331</v>
       </c>
       <c r="B616" t="s">
         <v>643</v>
@@ -10694,8 +10683,8 @@
       </c>
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A617" s="17">
-        <v>-1.113</v>
+      <c r="A617" s="14">
+        <v>3.331</v>
       </c>
       <c r="B617" t="s">
         <v>644</v>
@@ -10705,8 +10694,8 @@
       </c>
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A618" s="17">
-        <v>-1.113</v>
+      <c r="A618" s="14">
+        <v>3.331</v>
       </c>
       <c r="B618" t="s">
         <v>645</v>
@@ -10716,8 +10705,8 @@
       </c>
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A619" s="17">
-        <v>-1.113</v>
+      <c r="A619" s="14">
+        <v>3.331</v>
       </c>
       <c r="B619" t="s">
         <v>646</v>
@@ -10727,8 +10716,8 @@
       </c>
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A620" s="17">
-        <v>-1.113</v>
+      <c r="A620" s="14">
+        <v>3.331</v>
       </c>
       <c r="B620" t="s">
         <v>647</v>
@@ -10738,8 +10727,8 @@
       </c>
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A621" s="17">
-        <v>-1.113</v>
+      <c r="A621" s="14">
+        <v>3.331</v>
       </c>
       <c r="B621" t="s">
         <v>648</v>
@@ -10749,8 +10738,8 @@
       </c>
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A622" s="17">
-        <v>-1.113</v>
+      <c r="A622" s="14">
+        <v>3.331</v>
       </c>
       <c r="B622" t="s">
         <v>649</v>
@@ -10760,8 +10749,8 @@
       </c>
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A623" s="17">
-        <v>-1.113</v>
+      <c r="A623" s="14">
+        <v>3.331</v>
       </c>
       <c r="B623" t="s">
         <v>650</v>
@@ -10771,8 +10760,8 @@
       </c>
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A624" s="17">
-        <v>-1.113</v>
+      <c r="A624" s="14">
+        <v>3.331</v>
       </c>
       <c r="B624" t="s">
         <v>651</v>
@@ -10782,8 +10771,8 @@
       </c>
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A625" s="17">
-        <v>-1.113</v>
+      <c r="A625" s="14">
+        <v>3.331</v>
       </c>
       <c r="B625" t="s">
         <v>652</v>
@@ -10793,8 +10782,8 @@
       </c>
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A626" s="17">
-        <v>-1.113</v>
+      <c r="A626" s="14">
+        <v>3.331</v>
       </c>
       <c r="B626" t="s">
         <v>653</v>
@@ -10804,8 +10793,8 @@
       </c>
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A627" s="17">
-        <v>-1.113</v>
+      <c r="A627" s="14">
+        <v>3.331</v>
       </c>
       <c r="B627" t="s">
         <v>654</v>
@@ -10815,8 +10804,8 @@
       </c>
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A628" s="17">
-        <v>-1.113</v>
+      <c r="A628" s="14">
+        <v>3.331</v>
       </c>
       <c r="B628" t="s">
         <v>655</v>
@@ -10826,8 +10815,8 @@
       </c>
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A629" s="17">
-        <v>-1.113</v>
+      <c r="A629" s="14">
+        <v>3.331</v>
       </c>
       <c r="B629" t="s">
         <v>656</v>
@@ -10837,8 +10826,8 @@
       </c>
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A630" s="17">
-        <v>-1.113</v>
+      <c r="A630" s="14">
+        <v>3.331</v>
       </c>
       <c r="B630" t="s">
         <v>657</v>
@@ -10848,8 +10837,8 @@
       </c>
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A631" s="17">
-        <v>-1.113</v>
+      <c r="A631" s="14">
+        <v>3.331</v>
       </c>
       <c r="B631" t="s">
         <v>658</v>
@@ -10859,8 +10848,8 @@
       </c>
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A632" s="17">
-        <v>-1.113</v>
+      <c r="A632" s="14">
+        <v>3.331</v>
       </c>
       <c r="B632" t="s">
         <v>659</v>
@@ -10870,8 +10859,8 @@
       </c>
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A633" s="17">
-        <v>-1.113</v>
+      <c r="A633" s="14">
+        <v>3.331</v>
       </c>
       <c r="B633" t="s">
         <v>660</v>
@@ -11346,7 +11335,7 @@
       <c r="A676" s="14">
         <v>3.331</v>
       </c>
-      <c r="B676" s="18" t="s">
+      <c r="B676" s="16" t="s">
         <v>703</v>
       </c>
       <c r="C676" s="5" t="s">
@@ -11357,7 +11346,7 @@
       <c r="A677" s="14">
         <v>3.331</v>
       </c>
-      <c r="B677" s="18" t="s">
+      <c r="B677" s="16" t="s">
         <v>704</v>
       </c>
       <c r="C677" s="5" t="s">
@@ -11368,7 +11357,7 @@
       <c r="A678" s="14">
         <v>3.331</v>
       </c>
-      <c r="B678" s="18" t="s">
+      <c r="B678" s="16" t="s">
         <v>705</v>
       </c>
       <c r="C678" s="5" t="s">
@@ -11379,7 +11368,7 @@
       <c r="A679" s="14">
         <v>3.331</v>
       </c>
-      <c r="B679" s="18" t="s">
+      <c r="B679" s="16" t="s">
         <v>706</v>
       </c>
       <c r="C679" s="5" t="s">
@@ -11390,7 +11379,7 @@
       <c r="A680" s="14">
         <v>3.331</v>
       </c>
-      <c r="B680" s="18" t="s">
+      <c r="B680" s="16" t="s">
         <v>707</v>
       </c>
       <c r="C680" s="5" t="s">
@@ -11401,7 +11390,7 @@
       <c r="A681" s="14">
         <v>3.331</v>
       </c>
-      <c r="B681" s="18" t="s">
+      <c r="B681" s="16" t="s">
         <v>708</v>
       </c>
       <c r="C681" s="5" t="s">
@@ -11412,7 +11401,7 @@
       <c r="A682" s="14">
         <v>3.331</v>
       </c>
-      <c r="B682" s="18" t="s">
+      <c r="B682" s="16" t="s">
         <v>709</v>
       </c>
       <c r="C682" s="5" t="s">
@@ -11423,7 +11412,7 @@
       <c r="A683" s="14">
         <v>3.331</v>
       </c>
-      <c r="B683" s="18" t="s">
+      <c r="B683" s="16" t="s">
         <v>710</v>
       </c>
       <c r="C683" s="5" t="s">
@@ -11434,7 +11423,7 @@
       <c r="A684" s="14">
         <v>3.331</v>
       </c>
-      <c r="B684" s="18" t="s">
+      <c r="B684" s="16" t="s">
         <v>711</v>
       </c>
       <c r="C684" s="5" t="s">
@@ -11445,7 +11434,7 @@
       <c r="A685" s="14">
         <v>3.331</v>
       </c>
-      <c r="B685" s="18" t="s">
+      <c r="B685" s="16" t="s">
         <v>712</v>
       </c>
       <c r="C685" s="5" t="s">
@@ -11453,7 +11442,7 @@
       </c>
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A686" s="14">
+      <c r="A686" s="12">
         <v>3.331</v>
       </c>
       <c r="B686" t="s">
@@ -11464,7 +11453,7 @@
       </c>
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A687" s="14">
+      <c r="A687" s="12">
         <v>3.331</v>
       </c>
       <c r="B687" t="s">
@@ -11475,7 +11464,7 @@
       </c>
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A688" s="14">
+      <c r="A688" s="12">
         <v>3.331</v>
       </c>
       <c r="B688" t="s">
@@ -11486,7 +11475,7 @@
       </c>
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A689" s="14">
+      <c r="A689" s="12">
         <v>3.331</v>
       </c>
       <c r="B689" t="s">
@@ -11497,7 +11486,7 @@
       </c>
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A690" s="14">
+      <c r="A690" s="12">
         <v>3.331</v>
       </c>
       <c r="B690" t="s">
@@ -11508,7 +11497,7 @@
       </c>
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A691" s="14">
+      <c r="A691" s="12">
         <v>3.331</v>
       </c>
       <c r="B691" t="s">
@@ -11519,7 +11508,7 @@
       </c>
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A692" s="14">
+      <c r="A692" s="12">
         <v>3.331</v>
       </c>
       <c r="B692" t="s">
@@ -11530,7 +11519,7 @@
       </c>
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A693" s="14">
+      <c r="A693" s="12">
         <v>3.331</v>
       </c>
       <c r="B693" t="s">
@@ -11541,7 +11530,7 @@
       </c>
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A694" s="14">
+      <c r="A694" s="12">
         <v>3.331</v>
       </c>
       <c r="B694" t="s">
@@ -11552,7 +11541,7 @@
       </c>
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A695" s="14">
+      <c r="A695" s="12">
         <v>3.331</v>
       </c>
       <c r="B695" t="s">
@@ -11563,803 +11552,803 @@
       </c>
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A696" s="14">
+      <c r="A696" s="12">
         <v>3.331</v>
       </c>
       <c r="B696" t="s">
         <v>723</v>
       </c>
       <c r="C696" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B697" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A697" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B697" t="s">
+      <c r="C697" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B698" t="s">
         <v>725</v>
       </c>
-      <c r="C697" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A698" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B698" t="s">
+      <c r="C698" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B699" t="s">
         <v>726</v>
-      </c>
-      <c r="C698" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A699" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B699" t="s">
-        <v>727</v>
       </c>
       <c r="C699" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A700" s="14">
+      <c r="A700" s="12">
         <v>3.331</v>
       </c>
       <c r="B700" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C700" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A701" s="14">
+      <c r="A701" s="12">
         <v>3.331</v>
       </c>
       <c r="B701" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C701" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A702" s="14">
+      <c r="A702" s="12">
         <v>3.331</v>
       </c>
       <c r="B702" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C702" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A703" s="14">
+      <c r="A703" s="12">
         <v>3.331</v>
       </c>
       <c r="B703" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C703" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A704" s="14">
+      <c r="A704" s="12">
         <v>3.331</v>
       </c>
       <c r="B704" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C704" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A705" s="14">
+      <c r="A705" s="12">
         <v>3.331</v>
       </c>
       <c r="B705" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C705" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A706" s="14">
+      <c r="A706" s="12">
         <v>3.331</v>
       </c>
       <c r="B706" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C706" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A707" s="14">
+      <c r="A707" s="12">
         <v>3.331</v>
       </c>
       <c r="B707" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C707" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A708" s="14">
+      <c r="A708" s="12">
         <v>3.331</v>
       </c>
       <c r="B708" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C708" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A709" s="14">
+      <c r="A709" s="12">
         <v>3.331</v>
       </c>
       <c r="B709" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="C709" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A710" s="14">
+      <c r="A710" s="12">
         <v>3.331</v>
       </c>
       <c r="B710" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C710" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A711" s="14">
+      <c r="A711" s="12">
         <v>3.331</v>
       </c>
       <c r="B711" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C711" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A712" s="14">
+      <c r="A712" s="12">
         <v>3.331</v>
       </c>
       <c r="B712" t="s">
+        <v>739</v>
+      </c>
+      <c r="C712" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B713" t="s">
         <v>740</v>
       </c>
-      <c r="C712" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A713" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B713" t="s">
+      <c r="C713" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B714" t="s">
         <v>741</v>
       </c>
-      <c r="C713" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A714" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B714" t="s">
+      <c r="C714" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B715" t="s">
         <v>742</v>
-      </c>
-      <c r="C714" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A715" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B715" t="s">
-        <v>743</v>
       </c>
       <c r="C715" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A716" s="14">
+      <c r="A716" s="12">
         <v>3.331</v>
       </c>
       <c r="B716" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C716" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A717" s="14">
+      <c r="A717" s="12">
         <v>3.331</v>
       </c>
       <c r="B717" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C717" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A718" s="14">
+      <c r="A718" s="12">
         <v>3.331</v>
       </c>
       <c r="B718" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C718" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A719" s="14">
+      <c r="A719" s="12">
         <v>3.331</v>
       </c>
       <c r="B719" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C719" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A720" s="14">
+      <c r="A720" s="12">
         <v>3.331</v>
       </c>
       <c r="B720" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C720" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A721" s="14">
+      <c r="A721" s="12">
         <v>3.331</v>
       </c>
       <c r="B721" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C721" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A722" s="14">
+      <c r="A722" s="12">
         <v>3.331</v>
       </c>
       <c r="B722" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C722" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A723" s="14">
+      <c r="A723" s="12">
         <v>3.331</v>
       </c>
       <c r="B723" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="C723" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A724" s="14">
+      <c r="A724" s="12">
         <v>3.331</v>
       </c>
       <c r="B724" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C724" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A725" s="14">
+      <c r="A725" s="12">
         <v>3.331</v>
       </c>
       <c r="B725" t="s">
+        <v>752</v>
+      </c>
+      <c r="C725" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B726" t="s">
         <v>753</v>
       </c>
-      <c r="C725" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A726" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B726" t="s">
+      <c r="C726" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B727" t="s">
         <v>754</v>
       </c>
-      <c r="C726" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A727" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B727" t="s">
+      <c r="C727" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B728" t="s">
         <v>755</v>
       </c>
-      <c r="C727" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A728" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B728" t="s">
+      <c r="C728" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B729" t="s">
         <v>756</v>
       </c>
-      <c r="C728" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A729" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B729" t="s">
+      <c r="C729" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B730" t="s">
         <v>757</v>
-      </c>
-      <c r="C729" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A730" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B730" t="s">
-        <v>758</v>
       </c>
       <c r="C730" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A731" s="14">
+      <c r="A731" s="12">
         <v>3.331</v>
       </c>
       <c r="B731" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C731" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A732" s="14">
+      <c r="A732" s="12">
         <v>3.331</v>
       </c>
       <c r="B732" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C732" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A733" s="14">
+      <c r="A733" s="12">
         <v>3.331</v>
       </c>
       <c r="B733" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C733" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A734" s="14">
+      <c r="A734" s="12">
         <v>3.331</v>
       </c>
       <c r="B734" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C734" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A735" s="14">
+      <c r="A735" s="12">
         <v>3.331</v>
       </c>
       <c r="B735" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C735" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A736" s="14">
+      <c r="A736" s="12">
         <v>3.331</v>
       </c>
       <c r="B736" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C736" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A737" s="14">
+      <c r="A737" s="12">
         <v>3.331</v>
       </c>
       <c r="B737" t="s">
+        <v>764</v>
+      </c>
+      <c r="C737" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A738" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B738" t="s">
         <v>765</v>
       </c>
-      <c r="C737" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="738" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A738" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B738" t="s">
+      <c r="C738" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A739" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B739" t="s">
         <v>766</v>
       </c>
-      <c r="C738" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="739" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A739" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B739" t="s">
+      <c r="C739" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A740" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B740" t="s">
         <v>767</v>
       </c>
-      <c r="C739" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="740" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A740" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B740" t="s">
+      <c r="C740" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A741" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B741" t="s">
         <v>768</v>
       </c>
-      <c r="C740" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="741" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A741" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B741" t="s">
+      <c r="C741" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A742" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B742" t="s">
         <v>769</v>
-      </c>
-      <c r="C741" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="742" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A742" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B742" t="s">
-        <v>770</v>
       </c>
       <c r="C742" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A743" s="14">
+      <c r="A743" s="12">
         <v>3.331</v>
       </c>
       <c r="B743" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C743" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A744" s="14">
+      <c r="A744" s="12">
         <v>3.331</v>
       </c>
       <c r="B744" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C744" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A745" s="14">
+      <c r="A745" s="12">
         <v>3.331</v>
       </c>
       <c r="B745" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C745" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A746" s="14">
+      <c r="A746" s="12">
         <v>3.331</v>
       </c>
       <c r="B746" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C746" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A747" s="14">
+      <c r="A747" s="12">
         <v>3.331</v>
       </c>
       <c r="B747" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C747" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A748" s="14">
+      <c r="A748" s="12">
         <v>3.331</v>
       </c>
       <c r="B748" t="s">
+        <v>775</v>
+      </c>
+      <c r="C748" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A749" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B749" t="s">
         <v>776</v>
       </c>
-      <c r="C748" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="749" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A749" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B749" t="s">
+      <c r="C749" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A750" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B750" t="s">
         <v>777</v>
       </c>
-      <c r="C749" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="750" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A750" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B750" t="s">
+      <c r="C750" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A751" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B751" t="s">
         <v>778</v>
       </c>
-      <c r="C750" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="751" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A751" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B751" t="s">
+      <c r="C751" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A752" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B752" t="s">
         <v>779</v>
       </c>
-      <c r="C751" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="752" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A752" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B752" t="s">
+      <c r="C752" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A753" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B753" t="s">
         <v>780</v>
-      </c>
-      <c r="C752" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="753" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A753" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B753" t="s">
-        <v>781</v>
       </c>
       <c r="C753" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A754" s="14">
+      <c r="A754" s="12">
         <v>3.331</v>
       </c>
       <c r="B754" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="C754" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A755" s="14">
+      <c r="A755" s="12">
         <v>3.331</v>
       </c>
       <c r="B755" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C755" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A756" s="14">
+      <c r="A756" s="12">
         <v>3.331</v>
       </c>
       <c r="B756" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C756" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A757" s="14">
+      <c r="A757" s="12">
         <v>3.331</v>
       </c>
       <c r="B757" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="C757" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A758" s="14">
+      <c r="A758" s="12">
         <v>3.331</v>
       </c>
       <c r="B758" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C758" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A759" s="14">
+      <c r="A759" s="12">
         <v>3.331</v>
       </c>
       <c r="B759" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C759" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A760" s="14">
+      <c r="A760" s="12">
         <v>3.331</v>
       </c>
       <c r="B760" t="s">
+        <v>787</v>
+      </c>
+      <c r="C760" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A761" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B761" t="s">
         <v>788</v>
       </c>
-      <c r="C760" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="761" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A761" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B761" t="s">
+      <c r="C761" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A762" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B762" t="s">
         <v>789</v>
       </c>
-      <c r="C761" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="762" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A762" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B762" t="s">
+      <c r="C762" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A763" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B763" t="s">
         <v>790</v>
       </c>
-      <c r="C762" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="763" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A763" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B763" t="s">
+      <c r="C763" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A764" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B764" t="s">
         <v>791</v>
       </c>
-      <c r="C763" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="764" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A764" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B764" t="s">
+      <c r="C764" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A765" s="12">
+        <v>3.331</v>
+      </c>
+      <c r="B765" t="s">
         <v>792</v>
-      </c>
-      <c r="C764" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="765" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A765" s="14">
-        <v>3.331</v>
-      </c>
-      <c r="B765" t="s">
-        <v>793</v>
       </c>
       <c r="C765" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A766" s="14">
+      <c r="A766" s="12">
         <v>3.331</v>
       </c>
       <c r="B766" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C766" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A767" s="14">
+      <c r="A767" s="12">
         <v>3.331</v>
       </c>
       <c r="B767" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C767" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A768" s="14">
+      <c r="A768" s="12">
         <v>3.331</v>
       </c>
       <c r="B768" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="C768" t="s">
         <v>33</v>
@@ -12370,7 +12359,7 @@
         <v>3.331</v>
       </c>
       <c r="B769" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C769" t="s">
         <v>33</v>
@@ -12381,7 +12370,7 @@
         <v>3.331</v>
       </c>
       <c r="B770" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C770" t="s">
         <v>33</v>
@@ -12392,7 +12381,7 @@
         <v>3.331</v>
       </c>
       <c r="B771" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="C771" t="s">
         <v>33</v>
@@ -12403,7 +12392,7 @@
         <v>3.331</v>
       </c>
       <c r="B772" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="C772" t="s">
         <v>33</v>
@@ -12414,7 +12403,7 @@
         <v>3.331</v>
       </c>
       <c r="B773" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C773" t="s">
         <v>33</v>
@@ -12425,7 +12414,7 @@
         <v>3.331</v>
       </c>
       <c r="B774" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C774" t="s">
         <v>33</v>
@@ -12436,7 +12425,7 @@
         <v>3.331</v>
       </c>
       <c r="B775" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C775" t="s">
         <v>33</v>
@@ -12447,7 +12436,7 @@
         <v>3.331</v>
       </c>
       <c r="B776" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C776" t="s">
         <v>33</v>
@@ -12458,7 +12447,7 @@
         <v>3.331</v>
       </c>
       <c r="B777" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C777" t="s">
         <v>33</v>
@@ -12469,7 +12458,7 @@
         <v>3.331</v>
       </c>
       <c r="B778" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C778" t="s">
         <v>33</v>
@@ -12480,7 +12469,7 @@
         <v>3.331</v>
       </c>
       <c r="B779" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C779" t="s">
         <v>33</v>
@@ -12491,7 +12480,7 @@
         <v>3.331</v>
       </c>
       <c r="B780" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C780" t="s">
         <v>33</v>
@@ -12502,7 +12491,7 @@
         <v>3.331</v>
       </c>
       <c r="B781" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="C781" t="s">
         <v>33</v>
@@ -12513,7 +12502,7 @@
         <v>3.331</v>
       </c>
       <c r="B782" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="C782" t="s">
         <v>33</v>
@@ -12524,7 +12513,7 @@
         <v>3.331</v>
       </c>
       <c r="B783" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C783" t="s">
         <v>33</v>
@@ -12535,7 +12524,7 @@
         <v>3.331</v>
       </c>
       <c r="B784" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C784" t="s">
         <v>33</v>
@@ -12546,7 +12535,7 @@
         <v>3.331</v>
       </c>
       <c r="B785" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C785" t="s">
         <v>33</v>
@@ -12557,7 +12546,7 @@
         <v>3.331</v>
       </c>
       <c r="B786" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C786" t="s">
         <v>33</v>
@@ -12568,7 +12557,7 @@
         <v>3.331</v>
       </c>
       <c r="B787" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C787" t="s">
         <v>33</v>
@@ -12579,7 +12568,7 @@
         <v>3.331</v>
       </c>
       <c r="B788" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="C788" t="s">
         <v>33</v>
@@ -12590,7 +12579,7 @@
         <v>3.331</v>
       </c>
       <c r="B789" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="C789" t="s">
         <v>33</v>
@@ -12601,7 +12590,7 @@
         <v>3.331</v>
       </c>
       <c r="B790" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="C790" t="s">
         <v>33</v>
@@ -12612,7 +12601,7 @@
         <v>3.331</v>
       </c>
       <c r="B791" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="C791" t="s">
         <v>33</v>
@@ -12623,7 +12612,7 @@
         <v>3.331</v>
       </c>
       <c r="B792" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="C792" t="s">
         <v>33</v>
@@ -12634,10 +12623,10 @@
         <v>3.331</v>
       </c>
       <c r="B793" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C793" t="s">
-        <v>724</v>
+        <v>33</v>
       </c>
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.25">
@@ -12645,10 +12634,10 @@
         <v>3.331</v>
       </c>
       <c r="B794" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C794" t="s">
-        <v>724</v>
+        <v>33</v>
       </c>
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.25">
@@ -12656,10 +12645,10 @@
         <v>3.331</v>
       </c>
       <c r="B795" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C795" t="s">
-        <v>724</v>
+        <v>33</v>
       </c>
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.25">
@@ -12667,10 +12656,10 @@
         <v>3.331</v>
       </c>
       <c r="B796" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C796" t="s">
-        <v>724</v>
+        <v>33</v>
       </c>
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.25">
@@ -12678,10 +12667,10 @@
         <v>3.331</v>
       </c>
       <c r="B797" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C797" t="s">
-        <v>724</v>
+        <v>33</v>
       </c>
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.25">
@@ -12689,10 +12678,10 @@
         <v>3.331</v>
       </c>
       <c r="B798" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="C798" t="s">
-        <v>724</v>
+        <v>33</v>
       </c>
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.25">
@@ -12700,9 +12689,9 @@
         <v>3.331</v>
       </c>
       <c r="B799" t="s">
-        <v>827</v>
-      </c>
-      <c r="C799" s="5" t="s">
+        <v>826</v>
+      </c>
+      <c r="C799" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12711,9 +12700,9 @@
         <v>3.331</v>
       </c>
       <c r="B800" t="s">
-        <v>828</v>
-      </c>
-      <c r="C800" s="5" t="s">
+        <v>827</v>
+      </c>
+      <c r="C800" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12722,9 +12711,9 @@
         <v>3.331</v>
       </c>
       <c r="B801" t="s">
-        <v>829</v>
-      </c>
-      <c r="C801" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="C801" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12733,9 +12722,9 @@
         <v>3.331</v>
       </c>
       <c r="B802" t="s">
-        <v>830</v>
-      </c>
-      <c r="C802" s="5" t="s">
+        <v>829</v>
+      </c>
+      <c r="C802" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12744,9 +12733,9 @@
         <v>3.331</v>
       </c>
       <c r="B803" t="s">
-        <v>831</v>
-      </c>
-      <c r="C803" s="5" t="s">
+        <v>830</v>
+      </c>
+      <c r="C803" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12755,9 +12744,9 @@
         <v>3.331</v>
       </c>
       <c r="B804" t="s">
-        <v>832</v>
-      </c>
-      <c r="C804" s="5" t="s">
+        <v>831</v>
+      </c>
+      <c r="C804" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12766,9 +12755,9 @@
         <v>3.331</v>
       </c>
       <c r="B805" t="s">
-        <v>833</v>
-      </c>
-      <c r="C805" s="5" t="s">
+        <v>832</v>
+      </c>
+      <c r="C805" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12777,9 +12766,9 @@
         <v>3.331</v>
       </c>
       <c r="B806" t="s">
-        <v>834</v>
-      </c>
-      <c r="C806" s="5" t="s">
+        <v>833</v>
+      </c>
+      <c r="C806" t="s">
         <v>33</v>
       </c>
     </row>
@@ -12788,7 +12777,7 @@
         <v>3.331</v>
       </c>
       <c r="B807" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C807" s="5" t="s">
         <v>33</v>
@@ -12799,7 +12788,7 @@
         <v>3.331</v>
       </c>
       <c r="B808" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C808" s="5" t="s">
         <v>33</v>
@@ -12809,8 +12798,8 @@
       <c r="A809" s="12">
         <v>3.331</v>
       </c>
-      <c r="B809" s="18" t="s">
-        <v>837</v>
+      <c r="B809" s="16" t="s">
+        <v>836</v>
       </c>
       <c r="C809" t="s">
         <v>33</v>
@@ -12820,8 +12809,8 @@
       <c r="A810" s="12">
         <v>3.331</v>
       </c>
-      <c r="B810" s="18" t="s">
-        <v>838</v>
+      <c r="B810" s="16" t="s">
+        <v>837</v>
       </c>
       <c r="C810" t="s">
         <v>33</v>
@@ -12831,8 +12820,8 @@
       <c r="A811" s="12">
         <v>3.331</v>
       </c>
-      <c r="B811" s="18" t="s">
-        <v>839</v>
+      <c r="B811" s="16" t="s">
+        <v>838</v>
       </c>
       <c r="C811" t="s">
         <v>33</v>
@@ -12842,8 +12831,8 @@
       <c r="A812" s="12">
         <v>3.331</v>
       </c>
-      <c r="B812" s="18" t="s">
-        <v>840</v>
+      <c r="B812" s="16" t="s">
+        <v>839</v>
       </c>
       <c r="C812" t="s">
         <v>33</v>
@@ -12853,19 +12842,19 @@
       <c r="A813" s="12">
         <v>3.331</v>
       </c>
-      <c r="B813" s="18" t="s">
-        <v>841</v>
+      <c r="B813" s="16" t="s">
+        <v>840</v>
       </c>
       <c r="C813" t="s">
-        <v>724</v>
+        <v>33</v>
       </c>
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A814" s="12">
         <v>3.331</v>
       </c>
-      <c r="B814" s="18" t="s">
-        <v>842</v>
+      <c r="B814" s="16" t="s">
+        <v>841</v>
       </c>
       <c r="C814" t="s">
         <v>33</v>
@@ -12875,8 +12864,8 @@
       <c r="A815" s="12">
         <v>3.331</v>
       </c>
-      <c r="B815" s="18" t="s">
-        <v>843</v>
+      <c r="B815" s="16" t="s">
+        <v>842</v>
       </c>
       <c r="C815" t="s">
         <v>33</v>
@@ -12886,8 +12875,8 @@
       <c r="A816" s="12">
         <v>3.331</v>
       </c>
-      <c r="B816" s="18" t="s">
-        <v>844</v>
+      <c r="B816" s="16" t="s">
+        <v>843</v>
       </c>
       <c r="C816" t="s">
         <v>33</v>
@@ -12897,8 +12886,8 @@
       <c r="A817" s="12">
         <v>3.331</v>
       </c>
-      <c r="B817" s="18" t="s">
-        <v>845</v>
+      <c r="B817" s="16" t="s">
+        <v>844</v>
       </c>
       <c r="C817" t="s">
         <v>33</v>
@@ -12908,11 +12897,11 @@
       <c r="A818" s="12">
         <v>3.331</v>
       </c>
-      <c r="B818" s="18" t="s">
-        <v>846</v>
+      <c r="B818" s="16" t="s">
+        <v>845</v>
       </c>
       <c r="C818" t="s">
-        <v>724</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -12950,7 +12939,7 @@
         <v>3.331</v>
       </c>
       <c r="B2" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>36</v>
@@ -12961,7 +12950,7 @@
         <v>3.331</v>
       </c>
       <c r="B3" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>36</v>
@@ -12972,7 +12961,7 @@
         <v>3.331</v>
       </c>
       <c r="B4" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>36</v>
@@ -12983,7 +12972,7 @@
         <v>3.331</v>
       </c>
       <c r="B5" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>36</v>
@@ -12994,7 +12983,7 @@
         <v>3.331</v>
       </c>
       <c r="B6" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>36</v>
@@ -13005,7 +12994,7 @@
         <v>3.331</v>
       </c>
       <c r="B7" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>36</v>
@@ -13016,7 +13005,7 @@
         <v>3.331</v>
       </c>
       <c r="B8" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>36</v>
@@ -13027,7 +13016,7 @@
         <v>3.331</v>
       </c>
       <c r="B9" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>36</v>
@@ -13038,7 +13027,7 @@
         <v>3.331</v>
       </c>
       <c r="B10" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>36</v>
@@ -13049,7 +13038,7 @@
         <v>3.331</v>
       </c>
       <c r="B11" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>36</v>
@@ -13060,7 +13049,7 @@
         <v>3.331</v>
       </c>
       <c r="B12" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>36</v>
@@ -13071,7 +13060,7 @@
         <v>3.331</v>
       </c>
       <c r="B13" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>36</v>
@@ -13082,7 +13071,7 @@
         <v>3.331</v>
       </c>
       <c r="B14" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>36</v>
@@ -13093,7 +13082,7 @@
         <v>3.331</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>36</v>
@@ -13104,7 +13093,7 @@
         <v>3.331</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>36</v>
@@ -13115,7 +13104,7 @@
         <v>3.331</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>36</v>
@@ -13126,7 +13115,7 @@
         <v>3.331</v>
       </c>
       <c r="B18" s="11" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>36</v>
@@ -13137,7 +13126,7 @@
         <v>3.331</v>
       </c>
       <c r="B19" s="11" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>36</v>
@@ -13189,7 +13178,7 @@
         <v>184.1</v>
       </c>
       <c r="C3" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13211,7 +13200,7 @@
         <v>184.1</v>
       </c>
       <c r="C5" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13222,7 +13211,7 @@
         <v>184.1</v>
       </c>
       <c r="C6" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -13233,7 +13222,7 @@
         <v>184.1</v>
       </c>
       <c r="C7" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -13244,7 +13233,7 @@
         <v>184.1</v>
       </c>
       <c r="C8" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -13255,7 +13244,7 @@
         <v>184.1</v>
       </c>
       <c r="C9" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -13266,7 +13255,7 @@
         <v>184.1</v>
       </c>
       <c r="C10" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -13277,7 +13266,7 @@
         <v>184.1</v>
       </c>
       <c r="C11" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -13288,7 +13277,7 @@
         <v>184.1</v>
       </c>
       <c r="C12" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -13299,7 +13288,7 @@
         <v>184.1</v>
       </c>
       <c r="C13" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -13310,7 +13299,7 @@
         <v>184.1</v>
       </c>
       <c r="C14" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -13321,7 +13310,7 @@
         <v>184.2</v>
       </c>
       <c r="C15" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -13332,7 +13321,7 @@
         <v>184.2</v>
       </c>
       <c r="C16" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13343,7 +13332,7 @@
         <v>184.2</v>
       </c>
       <c r="C17" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -13354,7 +13343,7 @@
         <v>184.2</v>
       </c>
       <c r="C18" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
   </sheetData>
@@ -13378,7 +13367,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
@@ -13392,7 +13381,7 @@
         <v>199.2</v>
       </c>
       <c r="C2" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -13403,7 +13392,7 @@
         <v>227.2</v>
       </c>
       <c r="C3" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -13414,7 +13403,7 @@
         <v>225.2</v>
       </c>
       <c r="C4" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -13425,7 +13414,7 @@
         <v>241.2</v>
       </c>
       <c r="C5" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -13436,7 +13425,7 @@
         <v>255.2</v>
       </c>
       <c r="C6" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -13447,7 +13436,7 @@
         <v>253.2</v>
       </c>
       <c r="C7" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -13458,7 +13447,7 @@
         <v>269.2</v>
       </c>
       <c r="C8" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -13469,7 +13458,7 @@
         <v>283.3</v>
       </c>
       <c r="C9" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -13480,7 +13469,7 @@
         <v>281.2</v>
       </c>
       <c r="C10" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -13491,7 +13480,7 @@
         <v>279.2</v>
       </c>
       <c r="C11" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -13502,7 +13491,7 @@
         <v>277.2</v>
       </c>
       <c r="C12" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -13513,7 +13502,7 @@
         <v>275.2</v>
       </c>
       <c r="C13" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -13524,7 +13513,7 @@
         <v>311.3</v>
       </c>
       <c r="C14" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -13535,7 +13524,7 @@
         <v>309.3</v>
       </c>
       <c r="C15" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -13546,7 +13535,7 @@
         <v>307.3</v>
       </c>
       <c r="C16" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -13557,7 +13546,7 @@
         <v>305.2</v>
       </c>
       <c r="C17" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -13568,7 +13557,7 @@
         <v>303.2</v>
       </c>
       <c r="C18" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -13579,7 +13568,7 @@
         <v>301.2</v>
       </c>
       <c r="C19" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -13590,7 +13579,7 @@
         <v>339.3</v>
       </c>
       <c r="C20" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -13601,7 +13590,7 @@
         <v>337.3</v>
       </c>
       <c r="C21" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -13612,7 +13601,7 @@
         <v>335.3</v>
       </c>
       <c r="C22" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -13623,7 +13612,7 @@
         <v>331.3</v>
       </c>
       <c r="C23" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -13634,7 +13623,7 @@
         <v>329.2</v>
       </c>
       <c r="C24" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -13645,7 +13634,7 @@
         <v>327.2</v>
       </c>
       <c r="C25" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -13656,7 +13645,7 @@
         <v>367.4</v>
       </c>
       <c r="C26" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -13667,7 +13656,7 @@
         <v>365.3</v>
       </c>
       <c r="C27" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -13678,7 +13667,7 @@
         <v>264.2</v>
       </c>
       <c r="C28" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -13689,7 +13678,7 @@
         <v>267.2</v>
       </c>
       <c r="C29" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
   </sheetData>
